--- a/50projectstable.xlsx
+++ b/50projectstable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\school\ThesisProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\school\ThesisProject\Commented-out-Code-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3440A17A-C687-43B6-8F87-C83ABF3376C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A72CC0A-7B5F-4DD8-87B7-681D8BC10E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3339F13C-A6B3-4AD2-8974-D87AC03DF86A}"/>
+    <workbookView xWindow="3270" yWindow="0" windowWidth="25530" windowHeight="15600" xr2:uid="{3339F13C-A6B3-4AD2-8974-D87AC03DF86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Android Common</t>
   </si>
@@ -593,7 +593,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,15 +1024,15 @@
       <c r="D15" s="2">
         <v>16</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>62</v>
+      <c r="E15" s="2">
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>62</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
@@ -2110,31 +2110,31 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <f>AVERAGE(B2:B51)</f>
+        <f t="shared" ref="B53:H53" si="3">AVERAGE(B2:B51)</f>
         <v>205745.84</v>
       </c>
       <c r="C53" s="2">
-        <f>AVERAGE(C2:C51)</f>
+        <f t="shared" si="3"/>
         <v>61017.98</v>
       </c>
       <c r="D53" s="2">
-        <f>AVERAGE(D2:D51)</f>
+        <f t="shared" si="3"/>
         <v>33266.5</v>
       </c>
       <c r="E53" s="2">
-        <f>AVERAGE(E2:E51)</f>
-        <v>3602.1020408163267</v>
+        <f t="shared" si="3"/>
+        <v>3530.06</v>
       </c>
       <c r="F53" s="4">
-        <f>AVERAGE(F2:F51)</f>
+        <f t="shared" si="3"/>
         <v>0.24136170347163893</v>
       </c>
       <c r="G53" s="4">
-        <f>AVERAGE(G2:G51)</f>
-        <v>4.246535065092961</v>
+        <f t="shared" si="3"/>
+        <v>4.1616043637911018</v>
       </c>
       <c r="H53" s="4">
-        <f>AVERAGE(H2:H51)</f>
+        <f t="shared" si="3"/>
         <v>2.17019175599152</v>
       </c>
     </row>
@@ -2143,31 +2143,31 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <f>MEDIAN(B2:B51)</f>
+        <f t="shared" ref="B54:H54" si="4">MEDIAN(B2:B51)</f>
         <v>28088</v>
       </c>
       <c r="C54" s="2">
-        <f>MEDIAN(C2:C51)</f>
+        <f t="shared" si="4"/>
         <v>5949</v>
       </c>
       <c r="D54" s="2">
-        <f>MEDIAN(D2:D51)</f>
+        <f t="shared" si="4"/>
         <v>3033</v>
       </c>
       <c r="E54" s="2">
-        <f>MEDIAN(E2:E51)</f>
-        <v>137</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="F54" s="4">
-        <f>MEDIAN(F2:F51)</f>
+        <f t="shared" si="4"/>
         <v>0.19461081742891739</v>
       </c>
       <c r="G54" s="4">
-        <f>MEDIAN(G2:G51)</f>
-        <v>3.0674846625766872</v>
+        <f t="shared" si="4"/>
+        <v>3.015047094019323</v>
       </c>
       <c r="H54" s="4">
-        <f>MEDIAN(H2:H51)</f>
+        <f t="shared" si="4"/>
         <v>1.506597009773929</v>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G57">
         <f>COUNTIF(G2:G51, "&lt;4.16")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">

--- a/50projectstable.xlsx
+++ b/50projectstable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\school\ThesisProject\Commented-out-Code-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A72CC0A-7B5F-4DD8-87B7-681D8BC10E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B7B239-56AE-4DDF-84A4-3E89E66F1E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="0" windowWidth="25530" windowHeight="15600" xr2:uid="{3339F13C-A6B3-4AD2-8974-D87AC03DF86A}"/>
+    <workbookView xWindow="-9975" yWindow="3210" windowWidth="25530" windowHeight="15600" xr2:uid="{3339F13C-A6B3-4AD2-8974-D87AC03DF86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
-    <t>Android Common</t>
-  </si>
-  <si>
-    <t>AndroidUtilCode</t>
-  </si>
-  <si>
-    <t>Calligraphy</t>
-  </si>
-  <si>
-    <t>camerakit android</t>
-  </si>
-  <si>
-    <t>canal</t>
-  </si>
-  <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>ceph</t>
-  </si>
-  <si>
-    <t>CircleImageView</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -71,132 +47,6 @@
     <t>Lines of Commented-out Code</t>
   </si>
   <si>
-    <t>cmder</t>
-  </si>
-  <si>
-    <t>cmus</t>
-  </si>
-  <si>
-    <t>CNTK</t>
-  </si>
-  <si>
-    <t>CodeHub</t>
-  </si>
-  <si>
-    <t>collectd</t>
-  </si>
-  <si>
-    <t>CompleteSharp</t>
-  </si>
-  <si>
-    <t>conceal</t>
-  </si>
-  <si>
-    <t>ConfuserEx</t>
-  </si>
-  <si>
-    <t>csharplang</t>
-  </si>
-  <si>
-    <t>csl traffic</t>
-  </si>
-  <si>
-    <t>ctci</t>
-  </si>
-  <si>
-    <t>Divan</t>
-  </si>
-  <si>
-    <t>dlib</t>
-  </si>
-  <si>
-    <t>entt</t>
-  </si>
-  <si>
-    <t>fluent bit</t>
-  </si>
-  <si>
-    <t>folding cell android</t>
-  </si>
-  <si>
-    <t>graal</t>
-  </si>
-  <si>
-    <t>Hawk</t>
-  </si>
-  <si>
-    <t>hexchat</t>
-  </si>
-  <si>
-    <t>ip2region</t>
-  </si>
-  <si>
-    <t>JsBridge</t>
-  </si>
-  <si>
-    <t>JUCE</t>
-  </si>
-  <si>
-    <t>Krypto trading bot</t>
-  </si>
-  <si>
-    <t>libphonenumber</t>
-  </si>
-  <si>
-    <t>luna</t>
-  </si>
-  <si>
-    <t>material compnents android</t>
-  </si>
-  <si>
-    <t>MvvmCross</t>
-  </si>
-  <si>
-    <t>openFrameworks</t>
-  </si>
-  <si>
-    <t>OpenRCT2</t>
-  </si>
-  <si>
-    <t>phppredis</t>
-  </si>
-  <si>
-    <t>pocketsphinx</t>
-  </si>
-  <si>
-    <t>POGOLib</t>
-  </si>
-  <si>
-    <t>RIOT</t>
-  </si>
-  <si>
-    <t>roslyn</t>
-  </si>
-  <si>
-    <t>rufus</t>
-  </si>
-  <si>
-    <t>sider</t>
-  </si>
-  <si>
-    <t>Sourcetrail</t>
-  </si>
-  <si>
-    <t>Swashbuckle.AspNetCore</t>
-  </si>
-  <si>
-    <t>tiny AES c</t>
-  </si>
-  <si>
-    <t>vlmcsd</t>
-  </si>
-  <si>
-    <t>wren</t>
-  </si>
-  <si>
-    <t>xgboost</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -222,6 +72,156 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Trinea/Android Common</t>
+  </si>
+  <si>
+    <t>Blankj/AndroidUtilCode</t>
+  </si>
+  <si>
+    <t>chrisjenx/Calligraphy</t>
+  </si>
+  <si>
+    <t>CameraKit/camerakit android</t>
+  </si>
+  <si>
+    <t>alibaba/canal</t>
+  </si>
+  <si>
+    <t>apereo/cas</t>
+  </si>
+  <si>
+    <t>ceph/ceph</t>
+  </si>
+  <si>
+    <t>hdodenhof/CircleImageView</t>
+  </si>
+  <si>
+    <t>cmderdev/cmder</t>
+  </si>
+  <si>
+    <t>cmus/cmus</t>
+  </si>
+  <si>
+    <t>microsoft/CNTK</t>
+  </si>
+  <si>
+    <t>CodeHubApp/CodeHub</t>
+  </si>
+  <si>
+    <t>collectd/collectd</t>
+  </si>
+  <si>
+    <t>quarnstar/CompleteSharp</t>
+  </si>
+  <si>
+    <t>facebookarchive/conceal</t>
+  </si>
+  <si>
+    <t>yck1509/ConfuserEx</t>
+  </si>
+  <si>
+    <t>dotnet/csharplang</t>
+  </si>
+  <si>
+    <t>joafarias/csl traffic</t>
+  </si>
+  <si>
+    <t>careercup/ctci</t>
+  </si>
+  <si>
+    <t>foretagsplatsen/Divan</t>
+  </si>
+  <si>
+    <t>davisking/dlib</t>
+  </si>
+  <si>
+    <t>fluent/fluent bit</t>
+  </si>
+  <si>
+    <t>entt/entt</t>
+  </si>
+  <si>
+    <t>Ramotion/folding cell android</t>
+  </si>
+  <si>
+    <t>oracle/graal</t>
+  </si>
+  <si>
+    <t>ferventdesert/Hawk</t>
+  </si>
+  <si>
+    <t>hexchat/hexchat</t>
+  </si>
+  <si>
+    <t>lionsoul2014/ip2region</t>
+  </si>
+  <si>
+    <t>lzyzsd/JsBridge</t>
+  </si>
+  <si>
+    <t>juce framerwork/JUCE</t>
+  </si>
+  <si>
+    <t>ctubio/Krypto trading bot</t>
+  </si>
+  <si>
+    <t>google/libphonenumber</t>
+  </si>
+  <si>
+    <t>tj/luna</t>
+  </si>
+  <si>
+    <t>google/material compnents android</t>
+  </si>
+  <si>
+    <t>MvvmCross/MvvmCross</t>
+  </si>
+  <si>
+    <t>openFrameworks/openFrameworks</t>
+  </si>
+  <si>
+    <t>OpenRCT2/OpenRCT2</t>
+  </si>
+  <si>
+    <t>php/phppredis</t>
+  </si>
+  <si>
+    <t>cmusphinx/pocketsphinx</t>
+  </si>
+  <si>
+    <t>AeonLucid/POGOLib</t>
+  </si>
+  <si>
+    <t>riot/RIOT</t>
+  </si>
+  <si>
+    <t>dotnet/roslyn</t>
+  </si>
+  <si>
+    <t>pbatard/rufus</t>
+  </si>
+  <si>
+    <t>chakrit/sider</t>
+  </si>
+  <si>
+    <t>CoatiSoftware/Sourcetrail</t>
+  </si>
+  <si>
+    <t>domaindrivendev/Swashbuckle.AspNetCore</t>
+  </si>
+  <si>
+    <t>Kokke/tiny AES c</t>
+  </si>
+  <si>
+    <t>Wind4/vlmcsd</t>
+  </si>
+  <si>
+    <t>wren-lang - wren</t>
+  </si>
+  <si>
+    <t>dmlcx/xgboost</t>
   </si>
 </sst>
 </file>
@@ -592,13 +592,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F8D511-98D4-43D6-830D-954C2C629AF0}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
@@ -610,33 +610,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>6614</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>37120</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>1031</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>7603</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>82006</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>216752</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>993305</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>397</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>610</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>38252</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>195054</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <v>25642</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
         <v>113747</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
         <v>802</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
         <v>38475</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
         <v>28084</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
         <v>64</v>
@@ -1121,12 +1121,12 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
         <v>9588</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
         <v>12659</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
         <v>4558</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
         <v>382186</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
         <v>13191</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2">
         <v>757518</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
         <v>888</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
         <v>865667</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2">
         <v>28092</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2">
         <v>55789</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2">
         <v>2037</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
         <v>2397</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
         <v>421952</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2">
         <v>7353</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2">
         <v>58447</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2">
         <v>4908</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2">
         <v>69461</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2">
         <v>100281</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2">
         <v>162954</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2">
         <v>496084</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2">
         <v>14373</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2">
         <v>22691</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2">
         <v>12110</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2">
         <v>1754804</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2">
         <v>2720159</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2">
         <v>69747</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2">
         <v>6572</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2">
         <v>342175</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2">
         <v>12609</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2">
         <v>673</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2">
         <v>16540</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2">
         <v>42873</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2">
         <v>30398</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B52" s="2">
         <f>SUM(B2:B51)</f>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" ref="B53:H53" si="3">AVERAGE(B2:B51)</f>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" ref="B54:H54" si="4">MEDIAN(B2:B51)</f>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <f>E52/C52*100</f>
